--- a/ticker_info_data.xlsx
+++ b/ticker_info_data.xlsx
@@ -661,10 +661,10 @@
         <v>0.04415</v>
       </c>
       <c r="L2" t="n">
-        <v>1.146</v>
+        <v>1.155</v>
       </c>
       <c r="M2" t="n">
-        <v>5.229</v>
+        <v>5.228</v>
       </c>
       <c r="N2" t="n">
         <v>0.87</v>
@@ -673,7 +673,7 @@
         <v>0.36</v>
       </c>
       <c r="P2" t="n">
-        <v>5.7277775</v>
+        <v>5.786111</v>
       </c>
       <c r="Q2" t="n">
         <v>12663000064</v>
@@ -700,10 +700,10 @@
         <v>0.06855</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.049</v>
+        <v>2.061</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.18950105</v>
+        <v>0.17335606</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0465</v>
@@ -712,7 +712,7 @@
         <v>0.18</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.455555</v>
+        <v>11.572222</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>6460060672</v>
+        <v>6525851648</v>
       </c>
       <c r="AF2" t="n">
-        <v>11023050752</v>
+        <v>11019917312</v>
       </c>
       <c r="AG2" t="n">
         <v>0.82</v>
@@ -786,19 +786,19 @@
         <v>0.04697</v>
       </c>
       <c r="L3" t="n">
-        <v>0.821</v>
+        <v>0.838</v>
       </c>
       <c r="M3" t="n">
-        <v>21.319</v>
+        <v>20.705</v>
       </c>
       <c r="N3" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O3" t="n">
         <v>0.71</v>
       </c>
       <c r="P3" t="n">
-        <v>41.028168</v>
+        <v>39.422535</v>
       </c>
       <c r="Q3" t="n">
         <v>2323565056</v>
@@ -825,19 +825,19 @@
         <v>0.06954</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.53</v>
+        <v>28.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.007833779000000001</v>
+        <v>-0.032702267</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01</v>
+        <v>0.010299999</v>
       </c>
       <c r="AB3" t="n">
         <v>1.12</v>
       </c>
       <c r="AC3" t="n">
-        <v>26.008928</v>
+        <v>24.991072</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>6573592064</v>
+        <v>6316335104</v>
       </c>
       <c r="AF3" t="n">
-        <v>8086976512</v>
+        <v>7854007296</v>
       </c>
       <c r="AG3" t="n">
         <v>0.017</v>
@@ -911,19 +911,19 @@
         <v>0.0394</v>
       </c>
       <c r="L4" t="n">
-        <v>1.362</v>
+        <v>1.344</v>
       </c>
       <c r="M4" t="n">
-        <v>4.816</v>
+        <v>4.64</v>
       </c>
       <c r="N4" t="n">
-        <v>2.204</v>
+        <v>2.124</v>
       </c>
       <c r="O4" t="n">
         <v>3.84</v>
       </c>
       <c r="P4" t="n">
-        <v>5.9375</v>
+        <v>5.622396</v>
       </c>
       <c r="Q4" t="n">
         <v>1407320064</v>
@@ -950,19 +950,19 @@
         <v>0.3796</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06791568000000001</v>
+        <v>0.04413855</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.043899998</v>
+        <v>0.045500003</v>
       </c>
       <c r="AB4" t="n">
         <v>3.16</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2151895</v>
+        <v>6.8322783</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>3228434176</v>
+        <v>3057100800</v>
       </c>
       <c r="AF4" t="n">
-        <v>3102027008</v>
+        <v>2988748800</v>
       </c>
       <c r="AG4" t="n">
         <v>0.647</v>
@@ -1036,17 +1036,17 @@
         <v>0.02568</v>
       </c>
       <c r="L5" t="n">
-        <v>1.058</v>
+        <v>1.062</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>4.957</v>
+        <v>4.917</v>
       </c>
       <c r="O5" t="n">
         <v>3.43</v>
       </c>
       <c r="P5" t="n">
-        <v>11.760933</v>
+        <v>11.568513</v>
       </c>
       <c r="Q5" t="n">
         <v>905939008</v>
@@ -1065,19 +1065,19 @@
         <v>0.4312</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.98</v>
+        <v>40.02</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.20525849</v>
+        <v>0.2050587</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0533</v>
+        <v>0.0537</v>
       </c>
       <c r="AB5" t="n">
         <v>3.14</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.847134</v>
+        <v>12.636942</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>4606303744</v>
+        <v>4530940416</v>
       </c>
       <c r="AF5" t="n">
-        <v>4490905088</v>
+        <v>4454362624</v>
       </c>
       <c r="AG5" t="n">
         <v>0.272</v>
@@ -1151,7 +1151,7 @@
         <v>0.011519999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.309</v>
+        <v>1.314</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
@@ -1161,7 +1161,7 @@
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>9.057377000000001</v>
+        <v>8.942622</v>
       </c>
       <c r="Q6" t="n">
         <v>2066414976</v>
@@ -1180,10 +1180,10 @@
         <v>0.43963</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.94</v>
+        <v>11.05</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.30924165</v>
+        <v>0.3316462</v>
       </c>
       <c r="AA6" t="n">
         <v>0.076</v>
@@ -1192,7 +1192,7 @@
         <v>1.19</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.285714</v>
+        <v>9.168067000000001</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>8160358912</v>
+        <v>8053707264</v>
       </c>
       <c r="AF6" t="n">
         <v>13152660480</v>
@@ -1266,17 +1266,17 @@
         <v>0.0070200004</v>
       </c>
       <c r="L7" t="n">
-        <v>0.907</v>
+        <v>0.914</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>7.161</v>
+        <v>7.12</v>
       </c>
       <c r="O7" t="n">
         <v>0.93</v>
       </c>
       <c r="P7" t="n">
-        <v>6.6064515</v>
+        <v>6.350538</v>
       </c>
       <c r="Q7" t="n">
         <v>4851774976</v>
@@ -1295,19 +1295,19 @@
         <v>0.28652</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.42222226</v>
+        <v>0.4658537</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0911</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="AB7" t="n">
         <v>0.98</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.2693877</v>
+        <v>6.0265307</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>9239592960</v>
+        <v>8881679360</v>
       </c>
       <c r="AF7" t="n">
-        <v>34744311808</v>
+        <v>34542796800</v>
       </c>
       <c r="AG7" t="n">
         <v>0.08</v>
@@ -1381,17 +1381,17 @@
         <v>0.01114</v>
       </c>
       <c r="L8" t="n">
-        <v>1.373</v>
+        <v>1.345</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>4.255</v>
+        <v>4.215</v>
       </c>
       <c r="O8" t="n">
         <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>4.7735853</v>
+        <v>4.5358496</v>
       </c>
       <c r="Q8" t="n">
         <v>5195796992</v>
@@ -1410,19 +1410,19 @@
         <v>0.29622</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.94</v>
+        <v>4.915</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.84604156</v>
+        <v>0.88530874</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.059299998</v>
+        <v>0.061</v>
       </c>
       <c r="AB8" t="n">
         <v>0.83</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.0963855</v>
+        <v>5.7927713</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>7155244544</v>
+        <v>6798896640</v>
       </c>
       <c r="AF8" t="n">
-        <v>22106779648</v>
+        <v>21901799424</v>
       </c>
       <c r="AG8" t="n">
         <v>-0.361</v>
@@ -1496,19 +1496,19 @@
         <v>0.07743999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>1.04</v>
+        <v>1.034</v>
       </c>
       <c r="M9" t="n">
-        <v>5.067</v>
+        <v>4.89</v>
       </c>
       <c r="N9" t="n">
-        <v>1.416</v>
+        <v>1.367</v>
       </c>
       <c r="O9" t="n">
         <v>5.17</v>
       </c>
       <c r="P9" t="n">
-        <v>6.854932</v>
+        <v>6.673114</v>
       </c>
       <c r="Q9" t="n">
         <v>4224765952</v>
@@ -1535,19 +1535,19 @@
         <v>0.22657</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.3</v>
+        <v>34.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.28034687</v>
+        <v>0.25457203</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.016900001</v>
+        <v>0.0175</v>
       </c>
       <c r="AB9" t="n">
         <v>4.97</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.1307845</v>
+        <v>6.9416504</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>6442956800</v>
+        <v>6270823936</v>
       </c>
       <c r="AF9" t="n">
-        <v>5983004160</v>
+        <v>5773515776</v>
       </c>
       <c r="AG9" t="n">
         <v>-0.021</v>
@@ -1621,19 +1621,19 @@
         <v>0.04977</v>
       </c>
       <c r="L10" t="n">
-        <v>0.538</v>
+        <v>0.548</v>
       </c>
       <c r="M10" t="n">
-        <v>18.753</v>
+        <v>18.152</v>
       </c>
       <c r="N10" t="n">
-        <v>4.224</v>
+        <v>4.088</v>
       </c>
       <c r="O10" t="n">
         <v>0.28</v>
       </c>
       <c r="P10" t="n">
-        <v>29.8</v>
+        <v>28.342857</v>
       </c>
       <c r="Q10" t="n">
         <v>2984199936</v>
@@ -1660,13 +1660,13 @@
         <v>0.11169</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.374000000000001</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.30898553</v>
+        <v>-0.32478923</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0078</v>
+        <v>0.0081</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>10030238720</v>
+        <v>9539785728</v>
       </c>
       <c r="AF10" t="n">
-        <v>12604152832</v>
+        <v>12200249344</v>
       </c>
       <c r="AG10" t="n">
         <v>-0.155</v>
@@ -1742,19 +1742,19 @@
         <v>0.046919998</v>
       </c>
       <c r="L11" t="n">
-        <v>0.153</v>
+        <v>0.164</v>
       </c>
       <c r="M11" t="n">
-        <v>19.492</v>
+        <v>19.092</v>
       </c>
       <c r="N11" t="n">
-        <v>5.474</v>
+        <v>5.362</v>
       </c>
       <c r="O11" t="n">
         <v>3.03</v>
       </c>
       <c r="P11" t="n">
-        <v>34.323433</v>
+        <v>33.38284</v>
       </c>
       <c r="Q11" t="n">
         <v>1161026048</v>
@@ -1781,19 +1781,19 @@
         <v>0.14446999</v>
       </c>
       <c r="Y11" t="n">
-        <v>105.65</v>
+        <v>101.55</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.07928598000000001</v>
+        <v>0.10548663</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0111</v>
+        <v>0.0113</v>
       </c>
       <c r="AB11" t="n">
         <v>4.11</v>
       </c>
       <c r="AC11" t="n">
-        <v>25.304136</v>
+        <v>24.610704</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>5544853504</v>
+        <v>5392903168</v>
       </c>
       <c r="AF11" t="n">
-        <v>6355924992</v>
+        <v>6225300992</v>
       </c>
       <c r="AG11" t="n">
         <v>0.077</v>
@@ -1867,19 +1867,19 @@
         <v>0.04828</v>
       </c>
       <c r="L12" t="n">
-        <v>0.955</v>
+        <v>0.975</v>
       </c>
       <c r="M12" t="n">
-        <v>7.367</v>
+        <v>7.434</v>
       </c>
       <c r="N12" t="n">
-        <v>1.703</v>
+        <v>1.718</v>
       </c>
       <c r="O12" t="n">
         <v>0.52</v>
       </c>
       <c r="P12" t="n">
-        <v>13.2</v>
+        <v>13.559616</v>
       </c>
       <c r="Q12" t="n">
         <v>85862998016</v>
@@ -1906,19 +1906,19 @@
         <v>0.05904</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.846</v>
+        <v>6.995</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.116279125</v>
+        <v>0.12986588</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0626</v>
+        <v>0.0615</v>
       </c>
       <c r="AB12" t="n">
         <v>0.67</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.244776</v>
+        <v>10.523881</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>69714903040</v>
+        <v>71614193664</v>
       </c>
       <c r="AF12" t="n">
-        <v>146199871488</v>
+        <v>147530383360</v>
       </c>
       <c r="AG12" t="n">
         <v>0.481</v>
@@ -1992,19 +1992,19 @@
         <v>0.042480003</v>
       </c>
       <c r="L13" t="n">
-        <v>1.02</v>
+        <v>1.013</v>
       </c>
       <c r="M13" t="n">
-        <v>3.862</v>
+        <v>3.775</v>
       </c>
       <c r="N13" t="n">
-        <v>0.716</v>
+        <v>0.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>12.435594</v>
+        <v>11.854238</v>
       </c>
       <c r="Q13" t="n">
         <v>93824999424</v>
@@ -2031,19 +2031,19 @@
         <v>0.04222</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.806</v>
+        <v>14.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.004930854</v>
+        <v>-0.040410876</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.0704</v>
       </c>
       <c r="AB13" t="n">
         <v>2.13</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.8892016</v>
+        <v>6.567136</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -2051,10 +2051,10 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>46302777344</v>
+        <v>44083601408</v>
       </c>
       <c r="AF13" t="n">
-        <v>67196481536</v>
+        <v>65688543232</v>
       </c>
       <c r="AG13" t="n">
         <v>1.638</v>
@@ -2117,19 +2117,19 @@
         <v>0.03365</v>
       </c>
       <c r="L14" t="n">
-        <v>0.668</v>
+        <v>0.665</v>
       </c>
       <c r="M14" t="n">
-        <v>11.079</v>
+        <v>11.056</v>
       </c>
       <c r="N14" t="n">
-        <v>7.689</v>
+        <v>7.674</v>
       </c>
       <c r="O14" t="n">
         <v>1.56</v>
       </c>
       <c r="P14" t="n">
-        <v>15.692308</v>
+        <v>15.71795</v>
       </c>
       <c r="Q14" t="n">
         <v>757260032</v>
@@ -2156,19 +2156,19 @@
         <v>0.30172002</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.16</v>
+        <v>24.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.01607716</v>
+        <v>-0.03785491</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.040799998</v>
+        <v>0.040999997</v>
       </c>
       <c r="AB14" t="n">
         <v>1.53</v>
       </c>
       <c r="AC14" t="n">
-        <v>16</v>
+        <v>16.026144</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>3591803392</v>
+        <v>3597672448</v>
       </c>
       <c r="AF14" t="n">
-        <v>5822882304</v>
+        <v>5811163136</v>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
@@ -2236,19 +2236,19 @@
         <v>0.12933</v>
       </c>
       <c r="L15" t="n">
-        <v>0.987</v>
+        <v>0.998</v>
       </c>
       <c r="M15" t="n">
-        <v>40.11</v>
+        <v>38.443</v>
       </c>
       <c r="N15" t="n">
-        <v>12.911</v>
+        <v>12.375</v>
       </c>
       <c r="O15" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="P15" t="n">
-        <v>58.153446</v>
+        <v>55.522194</v>
       </c>
       <c r="Q15" t="n">
         <v>6364120064</v>
@@ -2275,19 +2275,19 @@
         <v>0.21791</v>
       </c>
       <c r="Y15" t="n">
-        <v>445.4</v>
+        <v>428.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.577425</v>
+        <v>0.5331185000000001</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0055</v>
+        <v>0.0057</v>
       </c>
       <c r="AB15" t="n">
         <v>8.710000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>51.343285</v>
+        <v>48.82893</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>80316678144</v>
+        <v>76368986112</v>
       </c>
       <c r="AF15" t="n">
-        <v>82169700352</v>
+        <v>78754299904</v>
       </c>
       <c r="AG15" t="n">
         <v>0.251</v>
@@ -2361,17 +2361,17 @@
         <v>0.01864</v>
       </c>
       <c r="L16" t="n">
-        <v>0.898</v>
+        <v>0.903</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>5.269</v>
+        <v>5.333</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>15.292079</v>
+        <v>15.242575</v>
       </c>
       <c r="Q16" t="n">
         <v>1290137984</v>
@@ -2390,19 +2390,19 @@
         <v>0.48099</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.275</v>
+        <v>15.58</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.20475817</v>
+        <v>0.3316239</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.044699997</v>
+        <v>0.044299997</v>
       </c>
       <c r="AB16" t="n">
         <v>0.98</v>
       </c>
       <c r="AC16" t="n">
-        <v>15.760203</v>
+        <v>15.709184</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>9435628544</v>
+        <v>9405082624</v>
       </c>
       <c r="AF16" t="n">
-        <v>6797633024</v>
+        <v>6880107008</v>
       </c>
       <c r="AG16" t="n">
         <v>0.08</v>
@@ -2476,19 +2476,19 @@
         <v>0.0075700004</v>
       </c>
       <c r="L17" t="n">
-        <v>0.987</v>
+        <v>0.982</v>
       </c>
       <c r="M17" t="n">
-        <v>10.574</v>
+        <v>10.595</v>
       </c>
       <c r="N17" t="n">
-        <v>1.16</v>
+        <v>1.163</v>
       </c>
       <c r="O17" t="n">
         <v>2.26</v>
       </c>
       <c r="P17" t="n">
-        <v>11.008849</v>
+        <v>11.053097</v>
       </c>
       <c r="Q17" t="n">
         <v>59817000960</v>
@@ -2515,19 +2515,19 @@
         <v>0.05945</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.84</v>
+        <v>24.97</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.30878484</v>
+        <v>0.30801463</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0514</v>
+        <v>0.0513</v>
       </c>
       <c r="AB17" t="n">
         <v>2.68</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.283581999999999</v>
+        <v>9.320895</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>38242299904</v>
+        <v>38396006400</v>
       </c>
       <c r="AF17" t="n">
-        <v>69404680192</v>
+        <v>69543698432</v>
       </c>
       <c r="AG17" t="n">
         <v>-0.08799999999999999</v>
@@ -2601,19 +2601,19 @@
         <v>0.03362</v>
       </c>
       <c r="L18" t="n">
-        <v>0.831</v>
+        <v>0.852</v>
       </c>
       <c r="M18" t="n">
-        <v>7.55</v>
+        <v>7.583</v>
       </c>
       <c r="N18" t="n">
-        <v>0.729</v>
+        <v>0.732</v>
       </c>
       <c r="O18" t="n">
         <v>0.28</v>
       </c>
       <c r="P18" t="n">
-        <v>12.428572</v>
+        <v>12.7</v>
       </c>
       <c r="Q18" t="n">
         <v>12685500416</v>
@@ -2640,19 +2640,19 @@
         <v>0.032</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.446</v>
+        <v>3.508</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.25541127</v>
+        <v>0.24573863</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0402</v>
+        <v>0.0399</v>
       </c>
       <c r="AB18" t="n">
         <v>0.29</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>12.26207</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>5017916416</v>
+        <v>5127502848</v>
       </c>
       <c r="AF18" t="n">
-        <v>9248403456</v>
+        <v>9288777728</v>
       </c>
       <c r="AG18" t="n">
         <v>0.275</v>
@@ -2726,19 +2726,19 @@
         <v>0.07110000399999999</v>
       </c>
       <c r="L19" t="n">
-        <v>1.159</v>
+        <v>1.151</v>
       </c>
       <c r="M19" t="n">
-        <v>9.884</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>2.222</v>
+        <v>2.139</v>
       </c>
       <c r="O19" t="n">
         <v>2.21</v>
       </c>
       <c r="P19" t="n">
-        <v>17.981901</v>
+        <v>16.914028</v>
       </c>
       <c r="Q19" t="n">
         <v>2151208960</v>
@@ -2765,19 +2765,19 @@
         <v>0.110190004</v>
       </c>
       <c r="Y19" t="n">
-        <v>39.16</v>
+        <v>38.08</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.15482771</v>
+        <v>-0.16344464</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0081</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="AB19" t="n">
         <v>1.14</v>
       </c>
       <c r="AC19" t="n">
-        <v>34.85965</v>
+        <v>32.789474</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>4251027712</v>
+        <v>3998576128</v>
       </c>
       <c r="AF19" t="n">
-        <v>4778914816</v>
+        <v>4601341952</v>
       </c>
       <c r="AG19" t="n">
         <v>-0.235</v>
@@ -2851,17 +2851,17 @@
         <v>0.00877</v>
       </c>
       <c r="L20" t="n">
-        <v>1.295</v>
+        <v>1.292</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
       <c r="O20" t="n">
         <v>0.45</v>
       </c>
       <c r="P20" t="n">
-        <v>8.365556</v>
+        <v>8.147778499999999</v>
       </c>
       <c r="Q20" t="n">
         <v>24297000960</v>
@@ -2880,19 +2880,19 @@
         <v>0.34028998</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.7285</v>
+        <v>3.751</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5337136</v>
+        <v>0.5541744</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.078600004</v>
+        <v>0.0789</v>
       </c>
       <c r="AB20" t="n">
         <v>0.49</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.682653</v>
+        <v>7.482653</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -2900,10 +2900,10 @@
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>67243757568</v>
+        <v>65493225472</v>
       </c>
       <c r="AF20" t="n">
-        <v>159144656896</v>
+        <v>158900518912</v>
       </c>
       <c r="AG20" t="n">
         <v>0.031</v>
@@ -2966,19 +2966,19 @@
         <v>0.03658</v>
       </c>
       <c r="L21" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="M21" t="n">
-        <v>20.251</v>
+        <v>20.481</v>
       </c>
       <c r="N21" t="n">
-        <v>14.76</v>
+        <v>14.928</v>
       </c>
       <c r="O21" t="n">
         <v>0.37</v>
       </c>
       <c r="P21" t="n">
-        <v>29.243242</v>
+        <v>29.675674</v>
       </c>
       <c r="Q21" t="n">
         <v>1000804992</v>
@@ -3005,19 +3005,19 @@
         <v>0.35455</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.71</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.058721185</v>
+        <v>-0.052132726</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0444</v>
+        <v>0.0436</v>
       </c>
       <c r="AB21" t="n">
         <v>0.45</v>
       </c>
       <c r="AC21" t="n">
-        <v>24.044445</v>
+        <v>24.4</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>10091077632</v>
+        <v>10239794176</v>
       </c>
       <c r="AF21" t="n">
-        <v>14772000768</v>
+        <v>14940249088</v>
       </c>
       <c r="AG21" t="n">
         <v>0.109</v>
@@ -3091,19 +3091,19 @@
         <v>0.0414</v>
       </c>
       <c r="L22" t="n">
-        <v>0.588</v>
+        <v>0.604</v>
       </c>
       <c r="M22" t="n">
-        <v>8.984</v>
+        <v>9.032</v>
       </c>
       <c r="N22" t="n">
-        <v>4.484</v>
+        <v>4.508</v>
       </c>
       <c r="O22" t="n">
         <v>0.57</v>
       </c>
       <c r="P22" t="n">
-        <v>8.929824999999999</v>
+        <v>8.85965</v>
       </c>
       <c r="Q22" t="n">
         <v>2519875072</v>
@@ -3130,19 +3130,19 @@
         <v>0.18283</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.04</v>
+        <v>5.165</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.026768625</v>
+        <v>-0.018993378</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0692</v>
+        <v>0.0682</v>
       </c>
       <c r="AB22" t="n">
         <v>0.59</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.627119</v>
+        <v>8.559322</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>4129221888</v>
+        <v>4096772096</v>
       </c>
       <c r="AF22" t="n">
-        <v>11298978816</v>
+        <v>11359821824</v>
       </c>
       <c r="AG22" t="n">
         <v>0.065</v>
@@ -3216,19 +3216,19 @@
         <v>0.02987</v>
       </c>
       <c r="L23" t="n">
-        <v>1.527</v>
+        <v>1.511</v>
       </c>
       <c r="M23" t="n">
-        <v>5.031</v>
+        <v>4.853</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.341</v>
       </c>
       <c r="O23" t="n">
         <v>0.83</v>
       </c>
       <c r="P23" t="n">
-        <v>11.474699</v>
+        <v>10.450603</v>
       </c>
       <c r="Q23" t="n">
         <v>16012999680</v>
@@ -3255,19 +3255,19 @@
         <v>0.0144299995</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.34</v>
+        <v>8.782</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.052143216</v>
+        <v>-0.017893076</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0231</v>
+        <v>0.0251</v>
       </c>
       <c r="AB23" t="n">
         <v>1.99</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.7859297</v>
+        <v>4.3587937</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>2541612800</v>
+        <v>2309808128</v>
       </c>
       <c r="AF23" t="n">
-        <v>5660027904</v>
+        <v>5459255808</v>
       </c>
       <c r="AG23" t="n">
         <v>0.007</v>
@@ -3341,19 +3341,19 @@
         <v>0.02537</v>
       </c>
       <c r="L24" t="n">
-        <v>1.186</v>
+        <v>1.201</v>
       </c>
       <c r="M24" t="n">
-        <v>10.723</v>
+        <v>9.930999999999999</v>
       </c>
       <c r="N24" t="n">
-        <v>1.075</v>
+        <v>0.995</v>
       </c>
       <c r="O24" t="n">
         <v>1.72</v>
       </c>
       <c r="P24" t="n">
-        <v>13.348837</v>
+        <v>11.848837</v>
       </c>
       <c r="Q24" t="n">
         <v>16382000128</v>
@@ -3380,19 +3380,19 @@
         <v>0.060310002</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.99</v>
+        <v>20.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.7166354700000001</v>
+        <v>0.5065502</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.012200001</v>
+        <v>0.0135</v>
       </c>
       <c r="AB24" t="n">
         <v>1.68</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.666667</v>
+        <v>12.130952</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>13209048064</v>
+        <v>11724755968</v>
       </c>
       <c r="AF24" t="n">
-        <v>17607055360</v>
+        <v>16306861056</v>
       </c>
       <c r="AG24" t="n">
         <v>-0.506</v>
@@ -3466,17 +3466,17 @@
         <v>0.01362</v>
       </c>
       <c r="L25" t="n">
-        <v>1.105</v>
+        <v>1.097</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>9.821</v>
+        <v>9.771000000000001</v>
       </c>
       <c r="O25" t="n">
         <v>1.53</v>
       </c>
       <c r="P25" t="n">
-        <v>9.990195999999999</v>
+        <v>9.761438</v>
       </c>
       <c r="Q25" t="n">
         <v>3368600064</v>
@@ -3495,19 +3495,19 @@
         <v>0.37802</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.135</v>
+        <v>15.08</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.26531458</v>
+        <v>0.2498964</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.12560001</v>
+        <v>0.1273</v>
       </c>
       <c r="AB25" t="n">
         <v>1.58</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.674049999999999</v>
+        <v>9.452532</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>12731625472</v>
+        <v>12440093696</v>
       </c>
       <c r="AF25" t="n">
-        <v>33082480640</v>
+        <v>32913027072</v>
       </c>
       <c r="AG25" t="n">
         <v>0.418</v>
@@ -3581,19 +3581,19 @@
         <v>0.12815</v>
       </c>
       <c r="L26" t="n">
-        <v>1.027</v>
+        <v>1.017</v>
       </c>
       <c r="M26" t="n">
-        <v>16.061</v>
+        <v>14.749</v>
       </c>
       <c r="N26" t="n">
-        <v>4.866</v>
+        <v>4.468</v>
       </c>
       <c r="O26" t="n">
         <v>2.38</v>
       </c>
       <c r="P26" t="n">
-        <v>23.285713</v>
+        <v>21.17647</v>
       </c>
       <c r="Q26" t="n">
         <v>3077789952</v>
@@ -3620,19 +3620,19 @@
         <v>0.21032</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.62</v>
+        <v>50.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.11526179</v>
+        <v>-0.12991452</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0208</v>
+        <v>0.0226</v>
       </c>
       <c r="AB26" t="n">
         <v>2.68</v>
       </c>
       <c r="AC26" t="n">
-        <v>20.679104</v>
+        <v>18.805971</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>14996984832</v>
+        <v>13638543360</v>
       </c>
       <c r="AF26" t="n">
-        <v>14975810560</v>
+        <v>13752669184</v>
       </c>
       <c r="AG26" t="n">
         <v>0.226</v>
@@ -3706,13 +3706,13 @@
         <v>0.01857</v>
       </c>
       <c r="L27" t="n">
-        <v>1.073</v>
+        <v>1.111</v>
       </c>
       <c r="M27" t="n">
-        <v>10.757</v>
+        <v>10.742</v>
       </c>
       <c r="N27" t="n">
-        <v>2.078</v>
+        <v>2.075</v>
       </c>
       <c r="O27" t="n">
         <v>-0.8100000000000001</v>
@@ -3746,14 +3746,14 @@
         <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.045069575</v>
+        <v>0.00031757355</v>
       </c>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
         <v>0.51</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.380393</v>
+        <v>12.305882</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -3761,10 +3761,10 @@
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>7915862016</v>
+        <v>7823159808</v>
       </c>
       <c r="AF27" t="n">
-        <v>12737736704</v>
+        <v>12719637504</v>
       </c>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
@@ -3823,19 +3823,19 @@
         <v>0.03987</v>
       </c>
       <c r="L28" t="n">
-        <v>1.279</v>
+        <v>1.233</v>
       </c>
       <c r="M28" t="n">
-        <v>6.833</v>
+        <v>6.79</v>
       </c>
       <c r="N28" t="n">
-        <v>1.287</v>
+        <v>1.278</v>
       </c>
       <c r="O28" t="n">
         <v>0.46</v>
       </c>
       <c r="P28" t="n">
-        <v>11.943478</v>
+        <v>11.639131</v>
       </c>
       <c r="Q28" t="n">
         <v>6921826816</v>
@@ -3862,19 +3862,19 @@
         <v>0.06683</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.48</v>
+        <v>5.438</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.18277717</v>
+        <v>0.15603745</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.036</v>
+        <v>0.0364</v>
       </c>
       <c r="AB28" t="n">
         <v>0.63</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.720634</v>
+        <v>8.498412999999999</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>5494000128</v>
+        <v>5353999872</v>
       </c>
       <c r="AF28" t="n">
-        <v>8905381888</v>
+        <v>8849382400</v>
       </c>
       <c r="AG28" t="n">
         <v>0.068</v>
@@ -3948,19 +3948,19 @@
         <v>0.0062300004</v>
       </c>
       <c r="L29" t="n">
-        <v>0.89</v>
+        <v>0.888</v>
       </c>
       <c r="M29" t="n">
-        <v>22.102</v>
+        <v>22.022</v>
       </c>
       <c r="N29" t="n">
-        <v>5.539</v>
+        <v>5.519</v>
       </c>
       <c r="O29" t="n">
         <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>9.028777</v>
+        <v>8.841726</v>
       </c>
       <c r="Q29" t="n">
         <v>13000999936</v>
@@ -3987,19 +3987,19 @@
         <v>0.13859999</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.54</v>
+        <v>12.35</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.23584437</v>
+        <v>0.22156286</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.0648</v>
       </c>
       <c r="AB29" t="n">
         <v>1.56</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.044872</v>
+        <v>7.8782053</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -4007,10 +4007,10 @@
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>16247481344</v>
+        <v>15910880256</v>
       </c>
       <c r="AF29" t="n">
-        <v>72008368128</v>
+        <v>71749304320</v>
       </c>
       <c r="AG29" t="n">
         <v>-0.13</v>
@@ -4073,19 +4073,19 @@
         <v>0.04526</v>
       </c>
       <c r="L30" t="n">
-        <v>1.045</v>
+        <v>1.06</v>
       </c>
       <c r="M30" t="n">
-        <v>14.8</v>
+        <v>14.414</v>
       </c>
       <c r="N30" t="n">
-        <v>1.272</v>
+        <v>1.239</v>
       </c>
       <c r="O30" t="n">
         <v>1.74</v>
       </c>
       <c r="P30" t="n">
-        <v>36.436783</v>
+        <v>34.022987</v>
       </c>
       <c r="Q30" t="n">
         <v>15208999936</v>
@@ -4112,19 +4112,19 @@
         <v>0.03458</v>
       </c>
       <c r="Y30" t="n">
-        <v>63.16</v>
+        <v>61.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.6992763</v>
+        <v>0.62532985</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.011</v>
+        <v>0.0114</v>
       </c>
       <c r="AB30" t="n">
         <v>3.79</v>
       </c>
       <c r="AC30" t="n">
-        <v>16.728233</v>
+        <v>15.620053</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>18387838976</v>
+        <v>17162434560</v>
       </c>
       <c r="AF30" t="n">
-        <v>19343599616</v>
+        <v>18839128064</v>
       </c>
       <c r="AG30" t="n">
         <v>-0.08500000000000001</v>
@@ -4198,19 +4198,19 @@
         <v>0.097320005</v>
       </c>
       <c r="L31" t="n">
-        <v>0.395</v>
+        <v>0.403</v>
       </c>
       <c r="M31" t="n">
-        <v>15.692</v>
+        <v>15.249</v>
       </c>
       <c r="N31" t="n">
-        <v>5.585</v>
+        <v>5.428</v>
       </c>
       <c r="O31" t="n">
         <v>1.85</v>
       </c>
       <c r="P31" t="n">
-        <v>28.64865</v>
+        <v>27.783785</v>
       </c>
       <c r="Q31" t="n">
         <v>2223726080</v>
@@ -4237,19 +4237,19 @@
         <v>0.17403999</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.55</v>
+        <v>51.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.16304588</v>
+        <v>0.12524676</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0238</v>
+        <v>0.024600001</v>
       </c>
       <c r="AB31" t="n">
         <v>2.63</v>
       </c>
       <c r="AC31" t="n">
-        <v>20.15209</v>
+        <v>19.543726</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>10928652288</v>
+        <v>10597703680</v>
       </c>
       <c r="AF31" t="n">
-        <v>12420439040</v>
+        <v>12069584896</v>
       </c>
       <c r="AG31" t="n">
         <v>-0.016</v>
@@ -4323,19 +4323,19 @@
         <v>0.02495</v>
       </c>
       <c r="L32" t="n">
-        <v>1.922</v>
+        <v>1.925</v>
       </c>
       <c r="M32" t="n">
-        <v>5.314</v>
+        <v>5.015</v>
       </c>
       <c r="N32" t="n">
-        <v>0.366</v>
+        <v>0.345</v>
       </c>
       <c r="O32" t="n">
         <v>0.13</v>
       </c>
       <c r="P32" t="n">
-        <v>15.615385</v>
+        <v>14.369231</v>
       </c>
       <c r="Q32" t="n">
         <v>12951000064</v>
@@ -4362,17 +4362,17 @@
         <v>0.01984</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.046</v>
+        <v>1.8945</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.38424826</v>
+        <v>0.22661054</v>
       </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="n">
         <v>0.26</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.8076925</v>
+        <v>7.1846156</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -4380,10 +4380,10 @@
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>3973095680</v>
+        <v>3656030976</v>
       </c>
       <c r="AF32" t="n">
-        <v>4740525056</v>
+        <v>4473227776</v>
       </c>
       <c r="AG32" t="n">
         <v>0.546</v>
@@ -4446,19 +4446,19 @@
         <v>0.03244</v>
       </c>
       <c r="L33" t="n">
-        <v>0.604</v>
+        <v>0.617</v>
       </c>
       <c r="M33" t="n">
-        <v>12.116</v>
+        <v>12.205</v>
       </c>
       <c r="N33" t="n">
-        <v>7.868</v>
+        <v>7.926</v>
       </c>
       <c r="O33" t="n">
         <v>0.32</v>
       </c>
       <c r="P33" t="n">
-        <v>14.009375</v>
+        <v>14.228126</v>
       </c>
       <c r="Q33" t="n">
         <v>3992999936</v>
@@ -4485,19 +4485,19 @@
         <v>0.26822</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.429</v>
+        <v>4.552</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.054817617</v>
+        <v>-0.052061617</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.075500004</v>
+        <v>0.0743</v>
       </c>
       <c r="AB33" t="n">
         <v>0.37</v>
       </c>
       <c r="AC33" t="n">
-        <v>12.116216</v>
+        <v>12.305406</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -4505,10 +4505,10 @@
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>15034232832</v>
+        <v>15268985856</v>
       </c>
       <c r="AF33" t="n">
-        <v>31417247744</v>
+        <v>31648647168</v>
       </c>
       <c r="AG33" t="n">
         <v>-0.246</v>
@@ -4571,19 +4571,19 @@
         <v>0.05298</v>
       </c>
       <c r="L34" t="n">
-        <v>1.314</v>
+        <v>1.297</v>
       </c>
       <c r="M34" t="n">
-        <v>1.803</v>
+        <v>1.69</v>
       </c>
       <c r="N34" t="n">
-        <v>0.223</v>
+        <v>0.209</v>
       </c>
       <c r="O34" t="n">
         <v>4.35</v>
       </c>
       <c r="P34" t="n">
-        <v>3.48</v>
+        <v>3.2321842</v>
       </c>
       <c r="Q34" t="n">
         <v>176192995328</v>
@@ -4610,19 +4610,19 @@
         <v>0.07547</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.146</v>
+        <v>14.294</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.099785924</v>
+        <v>-0.15917647</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.1024</v>
+        <v>0.1084</v>
       </c>
       <c r="AB34" t="n">
         <v>5.16</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.9337208</v>
+        <v>2.7248063</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>44278194176</v>
+        <v>41071648768</v>
       </c>
       <c r="AF34" t="n">
-        <v>39324389376</v>
+        <v>36841656320</v>
       </c>
       <c r="AG34" t="n">
         <v>-0.455</v>
@@ -4696,19 +4696,19 @@
         <v>0.089490004</v>
       </c>
       <c r="L35" t="n">
-        <v>1.291</v>
+        <v>1.264</v>
       </c>
       <c r="M35" t="n">
-        <v>4.607</v>
+        <v>4.353</v>
       </c>
       <c r="N35" t="n">
-        <v>1.502</v>
+        <v>1.419</v>
       </c>
       <c r="O35" t="n">
         <v>3.43</v>
       </c>
       <c r="P35" t="n">
-        <v>8.384840000000001</v>
+        <v>7.87172</v>
       </c>
       <c r="Q35" t="n">
         <v>15409999872</v>
@@ -4735,19 +4735,19 @@
         <v>0.18202</v>
       </c>
       <c r="Y35" t="n">
-        <v>28.585</v>
+        <v>27.35</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.33869857</v>
+        <v>-0.3616525</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0114</v>
+        <v>0.012</v>
       </c>
       <c r="AB35" t="n">
         <v>2.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.271429</v>
+        <v>9.642858</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -4755,10 +4755,10 @@
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>25939478528</v>
+        <v>24355106816</v>
       </c>
       <c r="AF35" t="n">
-        <v>23140913152</v>
+        <v>21867358208</v>
       </c>
       <c r="AG35" t="n">
         <v>-0.642</v>
@@ -4821,13 +4821,13 @@
         <v>0.01444</v>
       </c>
       <c r="L36" t="n">
-        <v>1.017</v>
+        <v>1.011</v>
       </c>
       <c r="M36" t="n">
-        <v>7.02</v>
+        <v>7.018</v>
       </c>
       <c r="N36" t="n">
-        <v>2.275</v>
+        <v>2.274</v>
       </c>
       <c r="O36" t="n">
         <v>-0.06</v>
@@ -4858,17 +4858,17 @@
         <v>-0.07033</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.2351</v>
+        <v>0.2388</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.21470779</v>
+        <v>-0.23116547</v>
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
         <v>-0.01</v>
       </c>
       <c r="AC36" t="n">
-        <v>-23.92</v>
+        <v>-23.23</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -4876,10 +4876,10 @@
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>5237235712</v>
+        <v>5087579136</v>
       </c>
       <c r="AF36" t="n">
-        <v>37255524352</v>
+        <v>37247025152</v>
       </c>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
@@ -4938,19 +4938,19 @@
         <v>0.09844</v>
       </c>
       <c r="L37" t="n">
-        <v>1.48</v>
+        <v>1.444</v>
       </c>
       <c r="M37" t="n">
-        <v>3.346</v>
+        <v>3.312</v>
       </c>
       <c r="N37" t="n">
-        <v>0.923</v>
+        <v>0.914</v>
       </c>
       <c r="O37" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="P37" t="n">
-        <v>6.2440763</v>
+        <v>6.077831</v>
       </c>
       <c r="Q37" t="n">
         <v>13415987200</v>
@@ -4977,19 +4977,19 @@
         <v>0.20413</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.17</v>
+        <v>13.065</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.11219674</v>
+        <v>-0.1269629</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0419</v>
+        <v>0.0422</v>
       </c>
       <c r="AB37" t="n">
         <v>1.75</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.5285716</v>
+        <v>7.3628573</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -4997,10 +4997,10 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>14609230848</v>
+        <v>14287662080</v>
       </c>
       <c r="AF37" t="n">
-        <v>12386236416</v>
+        <v>12263144448</v>
       </c>
       <c r="AG37" t="n">
         <v>-0.6899999999999999</v>
@@ -5063,19 +5063,19 @@
         <v>0.04133</v>
       </c>
       <c r="L38" t="n">
-        <v>0.509</v>
+        <v>0.517</v>
       </c>
       <c r="M38" t="n">
-        <v>11.158</v>
+        <v>11.257</v>
       </c>
       <c r="N38" t="n">
-        <v>7.635</v>
+        <v>7.703</v>
       </c>
       <c r="O38" t="n">
         <v>0.51</v>
       </c>
       <c r="P38" t="n">
-        <v>15.415687</v>
+        <v>15.67451</v>
       </c>
       <c r="Q38" t="n">
         <v>3428999936</v>
@@ -5102,19 +5102,19 @@
         <v>0.29711</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.748</v>
+        <v>7.978</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.037203193</v>
+        <v>0.026505351</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0572</v>
+        <v>0.056399997</v>
       </c>
       <c r="AB38" t="n">
         <v>0.47</v>
       </c>
       <c r="AC38" t="n">
-        <v>16.72766</v>
+        <v>17.00851</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>15769442304</v>
+        <v>16034204672</v>
       </c>
       <c r="AF38" t="n">
-        <v>26181165056</v>
+        <v>26413959168</v>
       </c>
       <c r="AG38" t="n">
         <v>0.309</v>
@@ -5188,17 +5188,17 @@
         <v>0.0126600005</v>
       </c>
       <c r="L39" t="n">
-        <v>1.478</v>
+        <v>1.455</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>4.075</v>
+        <v>4.037</v>
       </c>
       <c r="O39" t="n">
         <v>5.81</v>
       </c>
       <c r="P39" t="n">
-        <v>6.4337354</v>
+        <v>6.2349396</v>
       </c>
       <c r="Q39" t="n">
         <v>23637999616</v>
@@ -5217,19 +5217,19 @@
         <v>0.43866003</v>
       </c>
       <c r="Y39" t="n">
-        <v>36.905</v>
+        <v>36.83</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.6665181</v>
+        <v>0.7753676</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.0482</v>
+        <v>0.049000002</v>
       </c>
       <c r="AB39" t="n">
-        <v>5.8</v>
+        <v>5.82</v>
       </c>
       <c r="AC39" t="n">
-        <v>6.4448276</v>
+        <v>6.2242265</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -5237,10 +5237,10 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>59249545216</v>
+        <v>57418792960</v>
       </c>
       <c r="AF39" t="n">
-        <v>96335101952</v>
+        <v>95415902208</v>
       </c>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="n">
@@ -5299,13 +5299,13 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>0.728</v>
+        <v>0.734</v>
       </c>
       <c r="O40" t="n">
         <v>1.67</v>
       </c>
       <c r="P40" t="n">
-        <v>5.736527</v>
+        <v>5.688623</v>
       </c>
       <c r="Q40" t="n">
         <v>15420199936</v>
@@ -5328,19 +5328,19 @@
         <v>0.06961000000000001</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.59</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.87622404</v>
+        <v>0.90663004</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0397</v>
+        <v>0.039100002</v>
       </c>
       <c r="AB40" t="n">
         <v>1.39</v>
       </c>
       <c r="AC40" t="n">
-        <v>6.8920865</v>
+        <v>6.8345323</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
@@ -5348,10 +5348,10 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>14993945600</v>
+        <v>14868734976</v>
       </c>
       <c r="AF40" t="n">
-        <v>11218922496</v>
+        <v>11319347200</v>
       </c>
       <c r="AG40" t="n">
         <v>0.228</v>
